--- a/Excel/IOT/monster.怪物.xlsx
+++ b/Excel/IOT/monster.怪物.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>sheet名</t>
   </si>
@@ -189,6 +189,40 @@
   </si>
   <si>
     <t>skills[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drops[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drops[2]</t>
+  </si>
+  <si>
+    <t>drop_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落2</t>
+  </si>
+  <si>
+    <t>pt-1-item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-1-item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-1-item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-1-coin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -813,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,9 +863,11 @@
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
     <col min="9" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -862,8 +898,14 @@
       <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -894,8 +936,14 @@
       <c r="J2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -926,8 +974,14 @@
       <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -958,8 +1012,14 @@
       <c r="J4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -990,8 +1050,14 @@
       <c r="J5" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1022,8 +1088,14 @@
       <c r="J6" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1053,6 +1125,12 @@
       </c>
       <c r="J7" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
